--- a/python/predict/dlt.xlsx
+++ b/python/predict/dlt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\stdudyrecord\python\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC01155-2679-4DA9-9865-C6D7227A331E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D48BA-222B-42EA-9398-CF0E81D945FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="16">
   <si>
     <t>前区1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -467,191 +474,164 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>35</v>
-      </c>
-      <c r="F2">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>12011</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="1">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>20012</v>
+        <v>32</v>
       </c>
       <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
+      <c r="K3">
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>28</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>20111</v>
+        <v>12011</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>11111</v>
+        <v>20012</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>20111</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>3101</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,75 +639,75 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>212</v>
+      </c>
+      <c r="G7">
+        <v>11111</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>12020</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
       <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>3101</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -735,34 +715,34 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>30200</v>
+        <v>12020</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -773,180 +753,180 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>22100</v>
+        <v>2021</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>30200</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
       <c r="D12">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>1112</v>
+        <v>22100</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>41</v>
-      </c>
-      <c r="G13">
-        <v>13100</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="G14">
-        <v>11201</v>
+        <v>1112</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -958,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -966,34 +946,34 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G15">
-        <v>20111</v>
+        <v>13100</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1001,31 +981,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="G16">
-        <v>12101</v>
+        <v>11201</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
@@ -1039,78 +1019,78 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>20111</v>
+      </c>
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>13100</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
       <c r="D18">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>35</v>
       </c>
       <c r="F18">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>11111</v>
+        <v>12101</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1118,72 +1098,72 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>20120</v>
+        <v>13100</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="G20">
-        <v>12110</v>
+        <v>11111</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1191,75 +1171,75 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>23</v>
       </c>
       <c r="G21">
-        <v>10112</v>
+        <v>20120</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>26</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>13010</v>
+        <v>12110</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
       </c>
       <c r="L22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1267,66 +1247,66 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="G23">
-        <v>1220</v>
+        <v>10112</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F24">
         <v>41</v>
       </c>
       <c r="G24">
-        <v>21101</v>
+        <v>13010</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1335,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="L24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1343,34 +1323,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>29</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G25">
-        <v>21011</v>
+        <v>1220</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
         <v>10</v>
@@ -1381,31 +1361,31 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
         <v>15</v>
       </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>28</v>
-      </c>
       <c r="E26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G26">
-        <v>221</v>
+        <v>21101</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
@@ -1419,19 +1399,19 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>32</v>
@@ -1440,33 +1420,33 @@
         <v>21011</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>34</v>
@@ -1475,51 +1455,51 @@
         <v>23</v>
       </c>
       <c r="G28">
-        <v>11102</v>
+        <v>221</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29">
         <v>32</v>
       </c>
       <c r="G29">
-        <v>3020</v>
+        <v>21011</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
         <v>13</v>
@@ -1528,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1536,31 +1516,31 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>19</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
       <c r="G30">
-        <v>20111</v>
+        <v>11102</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
         <v>10</v>
@@ -1571,37 +1551,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
         <v>26</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <v>28</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>32</v>
       </c>
-      <c r="D31">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>35</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
       <c r="G31">
-        <v>23</v>
+        <v>3020</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K31" t="s">
         <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -1609,107 +1589,107 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>26</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>23</v>
       </c>
       <c r="G32">
-        <v>11111</v>
+        <v>20111</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>34</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>23</v>
-      </c>
-      <c r="F33">
-        <v>41</v>
-      </c>
-      <c r="G33">
-        <v>22010</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>12</v>
-      </c>
       <c r="K33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G34">
-        <v>10022</v>
+        <v>11111</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
@@ -1723,31 +1703,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G35">
-        <v>11120</v>
+        <v>22010</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
         <v>9</v>
@@ -1756,39 +1736,39 @@
         <v>12</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
         <v>14</v>
       </c>
-      <c r="D36">
-        <v>19</v>
-      </c>
-      <c r="E36">
-        <v>27</v>
-      </c>
-      <c r="F36">
-        <v>32</v>
-      </c>
       <c r="G36">
-        <v>12110</v>
+        <v>10022</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1799,28 +1779,28 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F37">
         <v>32</v>
       </c>
       <c r="G37">
-        <v>11102</v>
+        <v>11120</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>9</v>
@@ -1837,40 +1817,40 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>21101</v>
+        <v>12110</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -1878,31 +1858,31 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>17</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <v>32</v>
       </c>
       <c r="G39">
-        <v>11120</v>
+        <v>11102</v>
       </c>
       <c r="I39">
         <v>5</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1916,72 +1896,72 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G40">
-        <v>10130</v>
+        <v>21101</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
         <v>13</v>
       </c>
       <c r="L40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F41">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>11120</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
       </c>
       <c r="L41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -1989,25 +1969,25 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F42">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G42">
-        <v>12002</v>
+        <v>10130</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2022,118 +2002,118 @@
         <v>11</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E43">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G43">
-        <v>3001</v>
+        <v>11120</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F44">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G44">
-        <v>12200</v>
+        <v>12002</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44">
-        <v>8</v>
-      </c>
-      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44">
         <v>13</v>
       </c>
       <c r="L44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G45">
-        <v>20021</v>
+        <v>3001</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2141,37 +2121,37 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F46">
         <v>41</v>
       </c>
       <c r="G46">
-        <v>22001</v>
+        <v>12200</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>9</v>
-      </c>
-      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
         <v>13</v>
       </c>
       <c r="L46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2179,34 +2159,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E47">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F47">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="G47">
-        <v>3101</v>
+        <v>20021</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L47" t="s">
         <v>10</v>
@@ -2217,37 +2197,37 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F48">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="G48">
-        <v>1301</v>
+        <v>22001</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>5</v>
-      </c>
-      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48">
         <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2255,69 +2235,69 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>311</v>
+      </c>
+      <c r="G49">
+        <v>3101</v>
+      </c>
+      <c r="I49">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>12</v>
-      </c>
-      <c r="E49">
-        <v>26</v>
-      </c>
-      <c r="F49">
-        <v>41</v>
-      </c>
-      <c r="G49">
-        <v>31010</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
       <c r="J49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L49" t="s">
         <v>10</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F50">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="G50">
-        <v>30200</v>
+        <v>1301</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K50" t="s">
         <v>13</v>
@@ -2331,75 +2311,75 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F51">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="G51">
-        <v>2120</v>
+        <v>31010</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L51" t="s">
         <v>10</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>41</v>
+      </c>
+      <c r="G52">
+        <v>30200</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="B52">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>32</v>
-      </c>
-      <c r="D52">
-        <v>34</v>
-      </c>
-      <c r="E52">
-        <v>35</v>
-      </c>
-      <c r="F52">
-        <v>23</v>
-      </c>
-      <c r="G52">
-        <v>11003</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
       <c r="J52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -2407,75 +2387,75 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>24</v>
       </c>
       <c r="F53">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="G53">
-        <v>11210</v>
+        <v>2120</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L53" t="s">
         <v>10</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>14</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G54">
-        <v>2210</v>
+        <v>11003</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -2483,37 +2463,37 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F55">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="G55">
-        <v>1121</v>
+        <v>11210</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -2521,10 +2501,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -2533,63 +2513,63 @@
         <v>19</v>
       </c>
       <c r="E56">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F56">
         <v>32</v>
       </c>
       <c r="G56">
-        <v>2201</v>
+        <v>2210</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L56" t="s">
         <v>10</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="G57">
-        <v>11300</v>
+        <v>1121</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
         <v>9</v>
       </c>
       <c r="L57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -2597,72 +2577,78 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58">
         <v>32</v>
       </c>
       <c r="G58">
-        <v>20102</v>
+        <v>2201</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J58">
         <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>15</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E59">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F59">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="G59">
-        <v>20111</v>
+        <v>11300</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L59" t="s">
         <v>10</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
@@ -2670,31 +2656,31 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E60">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G60">
-        <v>11012</v>
+        <v>20102</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L60" t="s">
         <v>12</v>
@@ -2702,76 +2688,146 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F61">
         <v>32</v>
       </c>
       <c r="G61">
-        <v>2210</v>
+        <v>20111</v>
       </c>
       <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>4</v>
       </c>
-      <c r="J61">
-        <v>12</v>
-      </c>
       <c r="K61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>33</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>11012</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>2210</v>
+      </c>
+      <c r="I63">
         <v>4</v>
       </c>
-      <c r="B62">
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
         <v>6</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>7</v>
       </c>
-      <c r="D62">
+      <c r="D64">
         <v>33</v>
       </c>
-      <c r="E62">
+      <c r="E64">
         <v>34</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <v>32</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>30002</v>
       </c>
-      <c r="I62">
-        <v>9</v>
-      </c>
-      <c r="J62">
-        <v>10</v>
-      </c>
-      <c r="K62" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
